--- a/biology/Botanique/Klebsormidiophycées/Klebsormidiophycées.xlsx
+++ b/biology/Botanique/Klebsormidiophycées/Klebsormidiophycées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Klebsormidiophyc%C3%A9es</t>
+          <t>Klebsormidiophycées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Klebsormidiophyceae ou Klebsormidiophycées (anciennement appelées Klebsormidiophytes, ou Klebsormidiophyta), est une classe d'algues vertes européennes de la division des Charophyta. 
-Selon B. Reviers (2002) elle rassemblerait 40 espèces réparties dans 3 genres : Klebsormidium, Stichococcus[note 1] et Entransia[1].
-Selon AlgaeBase                                           (18 octobre 2022)[2],	elle contient 48 espèces réparties en deux familles et 7 genres Closteriospira, Elakatothrix, Entransia, Hormidiella, Klebsormidium, Streptofilum, Streptosarcina.
+Selon B. Reviers (2002) elle rassemblerait 40 espèces réparties dans 3 genres : Klebsormidium, Stichococcus[note 1] et Entransia.
+Selon AlgaeBase                                           (18 octobre 2022),	elle contient 48 espèces réparties en deux familles et 7 genres Closteriospira, Elakatothrix, Entransia, Hormidiella, Klebsormidium, Streptofilum, Streptosarcina.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Klebsormidiophyc%C3%A9es</t>
+          <t>Klebsormidiophycées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces algues se présentent sous la forme de filaments non ramifiés de petite taille, et elles possèdent des chloroplastes munis d'un petit pyrénoïde en position pariétale. Il peut y avoir ou non des zoospores. Dans ce dernier cas la reproduction s'opère par fragmentation des filaments. Les gamètes mâles, les anthérozoïdes, sont biflagellés (caractéristique des Bikonta)[3]. Après la fécondation, le zygote forme un kyste.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces algues se présentent sous la forme de filaments non ramifiés de petite taille, et elles possèdent des chloroplastes munis d'un petit pyrénoïde en position pariétale. Il peut y avoir ou non des zoospores. Dans ce dernier cas la reproduction s'opère par fragmentation des filaments. Les gamètes mâles, les anthérozoïdes, sont biflagellés (caractéristique des Bikonta). Après la fécondation, le zygote forme un kyste.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Klebsormidiophyc%C3%A9es</t>
+          <t>Klebsormidiophycées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces algues sont terrestres ou aquatiques. On les trouve sur les rochers ou sur les maisons ou bien en eau douce et parfois dans les estuaires. Raphidonema nivale se trouve dans les glaciers.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Klebsormidiophyc%C3%A9es</t>
+          <t>Klebsormidiophycées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 mai 2013)[4], ITIS      (2 mai 2013)[5] et World Register of Marine Species                               (2 mai 2013)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 mai 2013), ITIS      (2 mai 2013) et World Register of Marine Species                               (2 mai 2013) :
 ordre des Klebsormidiales K.D.Stewart &amp; K.R.Mattox
-Selon NCBI  (2 mai 2013)[7] :
+Selon NCBI  (2 mai 2013) :
 ordre des Klebsormidiales
 famille des Elakatotrichaceae
 famille des Klebsormidiaceae
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Klebsormidiophyc%C3%A9es</t>
+          <t>Klebsormidiophycées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,10 +629,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres Raphidonema et Koliella, autrefois classés dans les Klebsormidiophyceae[8], ont été transférés dans les Trebouxiophyceae[1] et la famille des Koliellaceae.
-Le genre Stichococcus a lui aussi été ajouté à la classe des Trebouxiophyceae mais dans la famille des Stichococcaceae[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Raphidonema et Koliella, autrefois classés dans les Klebsormidiophyceae, ont été transférés dans les Trebouxiophyceae et la famille des Koliellaceae.
+Le genre Stichococcus a lui aussi été ajouté à la classe des Trebouxiophyceae mais dans la famille des Stichococcaceae.
 </t>
         </is>
       </c>
